--- a/plantillaHPV/ejemplosLiderazgo.xlsx
+++ b/plantillaHPV/ejemplosLiderazgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Hpv\plantillaHPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HPV2018\plantillaHPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -613,14 +613,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -684,20 +684,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9038</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>118181</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -716,8 +716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="57150"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="1038225" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1100,6 +1100,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1118,6 +1119,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1136,6 +1138,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1154,6 +1157,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1172,6 +1176,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1190,6 +1195,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
@@ -1198,18 +1204,19 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1228,8 +1235,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1245,6 +1254,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1299,78 +1309,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1387,78 +1397,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1475,78 +1485,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1563,78 +1573,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1651,78 +1661,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/plantillaHPV/ejemplosLiderazgo.xlsx
+++ b/plantillaHPV/ejemplosLiderazgo.xlsx
@@ -685,19 +685,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -716,7 +716,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="0"/>
+          <a:off x="1019175" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
